--- a/public/test_data_workload.xlsx
+++ b/public/test_data_workload.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\PortalVLU\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Khối lượng giảng dạy" sheetId="1" r:id="rId1"/>
+    <sheet name="Khối lượng NCKH" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>STT</t>
   </si>
@@ -116,6 +117,61 @@
   </si>
   <si>
     <t>T</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>Mã giảng viên</t>
+  </si>
+  <si>
+    <t>Họ và tên</t>
+  </si>
+  <si>
+    <t>Diễn giải (tên cụ thể của hoạt động NCKH, …)</t>
+  </si>
+  <si>
+    <t>Đơn vị (đề tài, bài báo, tài liệu, giáo trình...)</t>
+  </si>
+  <si>
+    <t>Số lượng</t>
+  </si>
+  <si>
+    <t>Số tiết/giờ quy đổi</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Công việc</t>
+  </si>
+  <si>
+    <t>Chi tiết</t>
+  </si>
+  <si>
+    <t>Quy đổi
+giờ chuẩn</t>
+  </si>
+  <si>
+    <t>BẢNG TỔNG HỢP KHỐI LƯỢNG NCKH</t>
+  </si>
+  <si>
+    <t>Nguyen Xuan Loc</t>
+  </si>
+  <si>
+    <t>Khong Lam Gi</t>
+  </si>
+  <si>
+    <t>Khong CO Chi Tiet</t>
+  </si>
+  <si>
+    <t>Khong Co Dien Giao</t>
+  </si>
+  <si>
+    <t>Khong Co Don Vi</t>
+  </si>
+  <si>
+    <t>Khong Co luon</t>
   </si>
 </sst>
 </file>
@@ -236,7 +292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -259,12 +315,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -355,10 +440,59 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="10" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="11" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -644,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -663,23 +797,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="32"/>
@@ -879,10 +1014,223 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="35" customFormat="1"/>
+    <row r="9" spans="1:16" s="35" customFormat="1">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:P1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="11.25" style="43" customWidth="1"/>
+    <col min="2" max="2" width="18.25" style="43" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="43" customWidth="1"/>
+    <col min="4" max="4" width="33.75" style="43" customWidth="1"/>
+    <col min="5" max="5" width="36.375" style="43" customWidth="1"/>
+    <col min="6" max="6" width="34.875" style="43" customWidth="1"/>
+    <col min="7" max="7" width="29.25" style="43" customWidth="1"/>
+    <col min="8" max="8" width="10.75" style="60" customWidth="1"/>
+    <col min="9" max="9" width="12" style="60" customWidth="1"/>
+    <col min="10" max="10" width="15.125" style="60" customWidth="1"/>
+    <col min="11" max="11" width="13.875" style="57" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="25.5">
+      <c r="A1" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="62"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="45"/>
+    </row>
+    <row r="3" spans="1:11" s="47" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="45"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="45"/>
+    </row>
+    <row r="5" spans="1:11" ht="21.75">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="51"/>
+    </row>
+    <row r="6" spans="1:11" s="37" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A6" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="23">
+        <v>1</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="42">
+        <v>1</v>
+      </c>
+      <c r="I7" s="42">
+        <v>40</v>
+      </c>
+      <c r="J7" s="42">
+        <v>50</v>
+      </c>
+      <c r="K7" s="54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="56"/>
+    </row>
+    <row r="9" spans="1:11" s="47" customFormat="1">
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="56"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
